--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="4" r:id="rId1"/>
@@ -547,11 +547,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1161,17 +1162,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1524,28 +1531,28 @@
   <sheetPr/>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="1" customWidth="1"/>
-    <col min="7" max="12" width="10.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.19166666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.96666666666667" style="1" customWidth="1"/>
-    <col min="15" max="16" width="7.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="2" customWidth="1"/>
+    <col min="7" max="12" width="10.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.19166666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.96666666666667" style="2" customWidth="1"/>
+    <col min="15" max="16" width="7.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -1654,8 +1661,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:17">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="60" customHeight="1" spans="1:17">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1679,7 +1686,7 @@
       <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1707,7 +1714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1723,7 +1730,7 @@
       <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1763,7 +1770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" s="1" customFormat="1" spans="1:18">
       <c r="A5" s="1">
         <v>1102</v>
       </c>
@@ -1779,7 +1786,7 @@
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1819,7 +1826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" s="1" customFormat="1" spans="1:18">
       <c r="A6" s="1">
         <v>1103</v>
       </c>
@@ -1835,7 +1842,7 @@
       <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1875,7 +1882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" s="1" customFormat="1" spans="1:18">
       <c r="A7" s="1">
         <v>1104</v>
       </c>
@@ -1891,7 +1898,7 @@
       <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1931,7 +1938,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" s="1" customFormat="1" spans="1:18">
       <c r="A8" s="1">
         <v>1105</v>
       </c>
@@ -1947,7 +1954,7 @@
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1987,7 +1994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2003,7 +2010,7 @@
       <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2043,7 +2050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1">
         <v>1202</v>
       </c>
@@ -2059,7 +2066,7 @@
       <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2099,7 +2106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1">
         <v>1203</v>
       </c>
@@ -2115,7 +2122,7 @@
       <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2155,7 +2162,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" s="1" customFormat="1" spans="1:18">
       <c r="A12" s="1">
         <v>1204</v>
       </c>
@@ -2171,7 +2178,7 @@
       <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2211,7 +2218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" s="1" customFormat="1" spans="1:18">
       <c r="A13" s="1">
         <v>1205</v>
       </c>
@@ -2227,7 +2234,7 @@
       <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2267,7 +2274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" s="1" customFormat="1" spans="1:17">
       <c r="A14" s="1">
         <v>1301</v>
       </c>
@@ -2283,7 +2290,7 @@
       <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2320,7 +2327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" s="1" customFormat="1" spans="1:17">
       <c r="A15" s="1">
         <v>1302</v>
       </c>
@@ -2336,7 +2343,7 @@
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2373,7 +2380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" s="1" customFormat="1" spans="1:17">
       <c r="A16" s="1">
         <v>1303</v>
       </c>
@@ -2389,7 +2396,7 @@
       <c r="E16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2426,7 +2433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" s="1" customFormat="1" spans="1:17">
       <c r="A17" s="1">
         <v>1304</v>
       </c>
@@ -2442,7 +2449,7 @@
       <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2479,7 +2486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" s="1" customFormat="1" spans="1:17">
       <c r="A18" s="1">
         <v>1305</v>
       </c>
@@ -2495,7 +2502,7 @@
       <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -2532,7 +2539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" s="1" customFormat="1" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -2548,7 +2555,7 @@
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2588,7 +2595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" s="1" customFormat="1" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -2604,7 +2611,7 @@
       <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2644,7 +2651,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" s="1" customFormat="1" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -2660,7 +2667,7 @@
       <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2700,7 +2707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" s="1" customFormat="1" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -2716,7 +2723,7 @@
       <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2756,7 +2763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" s="1" customFormat="1" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -2772,7 +2779,7 @@
       <c r="E23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2808,11 +2815,11 @@
       <c r="Q23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" s="1" customFormat="1" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2828,7 +2835,7 @@
       <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2868,7 +2875,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" s="1" customFormat="1" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2884,7 +2891,7 @@
       <c r="E25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2924,7 +2931,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" s="1" customFormat="1" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
@@ -2940,7 +2947,7 @@
       <c r="E26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2980,7 +2987,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" s="1" customFormat="1" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2996,7 +3003,7 @@
       <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -3036,7 +3043,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" s="1" customFormat="1" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -3052,7 +3059,7 @@
       <c r="E28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3092,7 +3099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" s="1" customFormat="1" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -3108,7 +3115,7 @@
       <c r="E29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3148,7 +3155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" s="1" customFormat="1" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -3164,7 +3171,7 @@
       <c r="E30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3204,7 +3211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" s="1" customFormat="1" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
@@ -3220,7 +3227,7 @@
       <c r="E31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3260,7 +3267,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" s="1" customFormat="1" spans="1:18">
       <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
@@ -3276,7 +3283,7 @@
       <c r="E32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3316,7 +3323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" s="1" customFormat="1" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>115</v>
       </c>
@@ -3332,7 +3339,7 @@
       <c r="E33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3368,11 +3375,11 @@
       <c r="Q33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="R33" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" s="1" customFormat="1" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -3388,7 +3395,7 @@
       <c r="E34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -3428,7 +3435,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" s="1" customFormat="1" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
@@ -3444,7 +3451,7 @@
       <c r="E35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -3484,7 +3491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" s="1" customFormat="1" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>122</v>
       </c>
@@ -3500,7 +3507,7 @@
       <c r="E36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -3540,7 +3547,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" s="1" customFormat="1" spans="1:18">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
@@ -3556,7 +3563,7 @@
       <c r="E37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3596,7 +3603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" s="1" customFormat="1" spans="1:18">
       <c r="A38" s="1" t="s">
         <v>126</v>
       </c>
@@ -3612,7 +3619,7 @@
       <c r="E38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3652,7 +3659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" s="1" customFormat="1" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>128</v>
       </c>
@@ -3668,7 +3675,7 @@
       <c r="E39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -3708,7 +3715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" s="1" customFormat="1" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>131</v>
       </c>
@@ -3724,7 +3731,7 @@
       <c r="E40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -3764,7 +3771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" s="1" customFormat="1" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>133</v>
       </c>
@@ -3780,7 +3787,7 @@
       <c r="E41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -3820,7 +3827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" s="1" customFormat="1" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>135</v>
       </c>
@@ -3836,7 +3843,7 @@
       <c r="E42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3876,7 +3883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" s="1" customFormat="1" spans="1:18">
       <c r="A43" s="1" t="s">
         <v>137</v>
       </c>
@@ -3892,7 +3899,7 @@
       <c r="E43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3928,11 +3935,11 @@
       <c r="Q43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" s="1" customFormat="1" spans="1:18">
       <c r="A44" s="1" t="s">
         <v>139</v>
       </c>
@@ -3948,7 +3955,7 @@
       <c r="E44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3988,7 +3995,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" s="1" customFormat="1" spans="1:18">
       <c r="A45" s="1" t="s">
         <v>142</v>
       </c>
@@ -4004,7 +4011,7 @@
       <c r="E45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -4044,7 +4051,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" s="1" customFormat="1" spans="1:18">
       <c r="A46" s="1" t="s">
         <v>144</v>
       </c>
@@ -4060,7 +4067,7 @@
       <c r="E46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -4100,7 +4107,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" s="1" customFormat="1" spans="1:18">
       <c r="A47" s="1" t="s">
         <v>146</v>
       </c>
@@ -4116,7 +4123,7 @@
       <c r="E47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -4156,7 +4163,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" s="1" customFormat="1" spans="1:18">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -4172,7 +4179,7 @@
       <c r="E48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -4212,7 +4219,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" s="1" customFormat="1" spans="1:18">
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
@@ -4228,7 +4235,7 @@
       <c r="E49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -4268,7 +4275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" s="1" customFormat="1" spans="1:18">
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
@@ -4284,7 +4291,7 @@
       <c r="E50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -4324,7 +4331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" s="1" customFormat="1" spans="1:18">
       <c r="A51" s="1" t="s">
         <v>155</v>
       </c>
@@ -4340,7 +4347,7 @@
       <c r="E51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -4380,7 +4387,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" s="1" customFormat="1" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
@@ -4396,7 +4403,7 @@
       <c r="E52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -4436,7 +4443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" s="1" customFormat="1" spans="1:18">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4452,7 +4459,7 @@
       <c r="E53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -4488,11 +4495,11 @@
       <c r="Q53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="R53" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" s="1" customFormat="1" spans="1:18">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
@@ -4508,7 +4515,7 @@
       <c r="E54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -4548,7 +4555,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" s="1" customFormat="1" spans="1:18">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -4564,7 +4571,7 @@
       <c r="E55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -4604,7 +4611,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" s="1" customFormat="1" spans="1:18">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -4620,7 +4627,7 @@
       <c r="E56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -4660,7 +4667,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" s="1" customFormat="1" spans="1:18">
       <c r="A57" s="1" t="s">
         <v>168</v>
       </c>
@@ -4676,7 +4683,7 @@
       <c r="E57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -4716,7 +4723,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" s="1" customFormat="1" spans="1:18">
       <c r="A58" s="1" t="s">
         <v>170</v>
       </c>
@@ -4732,7 +4739,7 @@
       <c r="E58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -4787,7 +4794,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -8,19 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="4" r:id="rId1"/>
-    <sheet name="Common" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>type</t>
+    <t>_unitType</t>
   </si>
   <si>
     <t>name</t>
@@ -135,71 +134,113 @@
     <t>ID全名</t>
   </si>
   <si>
-    <t>人类士兵</t>
-  </si>
-  <si>
-    <t>史莱姆_冰</t>
-  </si>
-  <si>
-    <t>史莱姆_土</t>
-  </si>
-  <si>
-    <t>史莱姆_火</t>
-  </si>
-  <si>
-    <t>史莱姆_草</t>
-  </si>
-  <si>
-    <t>史莱姆_雷</t>
-  </si>
-  <si>
-    <t>史莱姆_风</t>
-  </si>
-  <si>
-    <t>哥布林战士</t>
-  </si>
-  <si>
-    <t>女忍者</t>
-  </si>
-  <si>
-    <t>皮卡丘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石巨人 </t>
-  </si>
-  <si>
-    <t>骷髅战士</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>Infantry</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Human_Infantry_1</t>
+  </si>
+  <si>
+    <t>帝国步兵</t>
+  </si>
+  <si>
+    <t>资深步兵</t>
+  </si>
+  <si>
+    <t>精英步兵</t>
+  </si>
+  <si>
+    <t>禁卫步兵</t>
+  </si>
+  <si>
+    <t>国王卫队</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Human_Archer_1</t>
+  </si>
+  <si>
+    <t>帝国弓箭手</t>
+  </si>
+  <si>
+    <t>资深弓箭手</t>
+  </si>
+  <si>
+    <t>精英弓箭手</t>
+  </si>
+  <si>
+    <t>禁卫长弓手</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>国王射手</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>Human_Cavalry _1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -654,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,33 +707,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,101 +746,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,16 +848,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1190,528 +1225,1004 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:18">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="R2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="60" customHeight="1" spans="1:17">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" ht="60" customHeight="1" spans="1:18">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="R3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:18">
+      <c r="A4" s="3">
+        <v>1101</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="3">
+        <v>1672401101</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:18">
+      <c r="A5" s="3">
+        <v>1102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1672401102</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:18">
+      <c r="A6" s="3">
+        <v>1103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1672401103</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:18">
+      <c r="A7" s="3">
+        <v>1104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1672401104</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="4">
+    <row r="8" s="1" customFormat="1" spans="1:18">
+      <c r="A8" s="3">
+        <v>1105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1672401105</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="O8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:18">
+      <c r="A9" s="3">
+        <v>1201</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1672401201</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
+      <c r="H9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:18">
+      <c r="A10" s="3">
+        <v>1202</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1672401202</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:18">
+      <c r="A11" s="3">
+        <v>1203</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1672401203</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:18">
+      <c r="A12" s="3">
+        <v>1204</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1672401204</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:18">
+      <c r="A13" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1672401205</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:18">
+      <c r="A14" s="3">
+        <v>1301</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1672401301</v>
+      </c>
+      <c r="D14" s="3">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
+      <c r="I14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:18">
+      <c r="A15" s="3">
+        <v>1302</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1672401302</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
+      <c r="J15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+    <row r="16" s="1" customFormat="1" spans="1:18">
+      <c r="A16" s="3">
+        <v>1303</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1672401303</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
+      <c r="K16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3">
+        <v>5</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+    <row r="17" s="1" customFormat="1" spans="1:18">
+      <c r="A17" s="3">
+        <v>1304</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1672401304</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
+      <c r="L17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="4">
+    <row r="18" s="1" customFormat="1" spans="1:18">
+      <c r="A18" s="3">
+        <v>1305</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1672401305</v>
+      </c>
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="N18" s="3">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="P18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="6:6">
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="6:6">
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="6:6">
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="6:6">
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="6:6">
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="6:6">
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="6:6">
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="6:18">
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="6:6">
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="6:6">
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="6:6">
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="6:6">
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="6:6">
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="6:6">
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="6:6">
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="6:6">
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="6:6">
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="6:18">
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="6:6">
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="6:6">
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="6:6">
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="6:6">
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="6:6">
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="6:6">
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="6:6">
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="6:6">
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="6:6">
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="6:18">
-      <c r="F43" s="5"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="6:6">
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="6:6">
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="6:6">
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="6:6">
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="6:6">
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="6:6">
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="6:6">
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="6:6">
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="6:6">
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="6:18">
-      <c r="F53" s="5"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="6:6">
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="6:6">
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="6:6">
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="6:6">
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="6:6">
-      <c r="F58" s="5"/>
+      <c r="Q18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="I10:I13" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1297,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>20</v>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
   <si>
     <t>0.4</t>
@@ -1204,7 +1201,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H15" sqref="H15:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1410,17 +1407,17 @@
       <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L4" s="3">
         <v>1.5</v>
@@ -1432,16 +1429,16 @@
         <v>5</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:18">
@@ -1466,17 +1463,17 @@
       <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L5" s="3">
         <v>1.5</v>
@@ -1488,16 +1485,16 @@
         <v>5</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="R5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:18">
@@ -1522,17 +1519,17 @@
       <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L6" s="3">
         <v>1.5</v>
@@ -1544,16 +1541,16 @@
         <v>5</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="R6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:18">
@@ -1578,17 +1575,17 @@
       <c r="G7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L7" s="3">
         <v>1.5</v>
@@ -1600,16 +1597,16 @@
         <v>5</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="R7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:18">
@@ -1634,17 +1631,17 @@
       <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L8" s="3">
         <v>1.5</v>
@@ -1656,16 +1653,16 @@
         <v>5</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="R8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
@@ -1673,7 +1670,7 @@
         <v>1201</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3">
         <v>1672401201</v>
@@ -1685,22 +1682,22 @@
         <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="3">
         <v>1.5</v>
@@ -1712,16 +1709,16 @@
         <v>5</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
@@ -1729,7 +1726,7 @@
         <v>1202</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3">
         <v>1672401202</v>
@@ -1741,22 +1738,22 @@
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="3">
         <v>1.5</v>
@@ -1768,16 +1765,16 @@
         <v>5</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
@@ -1785,7 +1782,7 @@
         <v>1203</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3">
         <v>1672401203</v>
@@ -1797,22 +1794,22 @@
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="3">
         <v>1.5</v>
@@ -1824,16 +1821,16 @@
         <v>5</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:18">
@@ -1841,7 +1838,7 @@
         <v>1204</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3">
         <v>1672401204</v>
@@ -1853,22 +1850,22 @@
         <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L12" s="3">
         <v>1.5</v>
@@ -1880,16 +1877,16 @@
         <v>5</v>
       </c>
       <c r="O12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:18">
@@ -1897,34 +1894,34 @@
         <v>1205</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3">
         <v>1672401205</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" s="3">
         <v>1.5</v>
@@ -1936,16 +1933,16 @@
         <v>5</v>
       </c>
       <c r="O13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:18">
@@ -1953,7 +1950,7 @@
         <v>1301</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3">
         <v>1672401301</v>
@@ -1970,17 +1967,17 @@
       <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L14" s="3">
         <v>1.5</v>
@@ -1992,13 +1989,13 @@
         <v>5</v>
       </c>
       <c r="O14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R14" s="3"/>
     </row>
@@ -2007,7 +2004,7 @@
         <v>1302</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3">
         <v>1672401302</v>
@@ -2024,17 +2021,17 @@
       <c r="G15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L15" s="3">
         <v>1.5</v>
@@ -2046,13 +2043,13 @@
         <v>5</v>
       </c>
       <c r="O15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R15" s="3"/>
     </row>
@@ -2061,7 +2058,7 @@
         <v>1303</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3">
         <v>1672401303</v>
@@ -2078,17 +2075,17 @@
       <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L16" s="3">
         <v>1.5</v>
@@ -2100,13 +2097,13 @@
         <v>5</v>
       </c>
       <c r="O16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R16" s="3"/>
     </row>
@@ -2115,7 +2112,7 @@
         <v>1304</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3">
         <v>1672401304</v>
@@ -2132,17 +2129,17 @@
       <c r="G17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L17" s="3">
         <v>1.5</v>
@@ -2154,13 +2151,13 @@
         <v>5</v>
       </c>
       <c r="O17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R17" s="3"/>
     </row>
@@ -2169,7 +2166,7 @@
         <v>1305</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3">
         <v>1672401305</v>
@@ -2186,17 +2183,17 @@
       <c r="G18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L18" s="3">
         <v>1.5</v>
@@ -2208,13 +2205,13 @@
         <v>5</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R18" s="3"/>
     </row>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -218,7 +218,7 @@
     <t>Cavalry</t>
   </si>
   <si>
-    <t>Human_Cavalry _1</t>
+    <t>Human_Cavalry_1</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="unit" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -1200,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15:Q18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1958,8 +1958,8 @@
       <c r="D14" s="3">
         <v>50</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
+      <c r="E14" s="3">
+        <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>41</v>
@@ -1968,7 +1968,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>43</v>
@@ -2012,8 +2012,8 @@
       <c r="D15" s="3">
         <v>50</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>40</v>
+      <c r="E15" s="3">
+        <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>41</v>
@@ -2022,7 +2022,7 @@
         <v>42</v>
       </c>
       <c r="H15" s="3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>43</v>
@@ -2066,8 +2066,8 @@
       <c r="D16" s="3">
         <v>50</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>40</v>
+      <c r="E16" s="3">
+        <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>41</v>
@@ -2076,7 +2076,7 @@
         <v>42</v>
       </c>
       <c r="H16" s="3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>43</v>
@@ -2120,8 +2120,8 @@
       <c r="D17" s="3">
         <v>50</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>40</v>
+      <c r="E17" s="3">
+        <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>41</v>
@@ -2130,7 +2130,7 @@
         <v>42</v>
       </c>
       <c r="H17" s="3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>43</v>
@@ -2174,8 +2174,8 @@
       <c r="D18" s="3">
         <v>50</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>40</v>
+      <c r="E18" s="3">
+        <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>41</v>
@@ -2184,7 +2184,7 @@
         <v>42</v>
       </c>
       <c r="H18" s="3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>43</v>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="4" r:id="rId1"/>
@@ -1200,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1959,7 +1959,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>41</v>
@@ -1968,7 +1968,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>43</v>
@@ -1980,7 +1980,7 @@
         <v>45</v>
       </c>
       <c r="L14" s="3">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M14" s="3">
         <v>10</v>
@@ -2013,7 +2013,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>41</v>
@@ -2022,7 +2022,7 @@
         <v>42</v>
       </c>
       <c r="H15" s="3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>43</v>
@@ -2034,7 +2034,7 @@
         <v>45</v>
       </c>
       <c r="L15" s="3">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M15" s="3">
         <v>10</v>
@@ -2067,7 +2067,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>41</v>
@@ -2076,7 +2076,7 @@
         <v>42</v>
       </c>
       <c r="H16" s="3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>43</v>
@@ -2088,7 +2088,7 @@
         <v>45</v>
       </c>
       <c r="L16" s="3">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M16" s="3">
         <v>10</v>
@@ -2121,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>41</v>
@@ -2130,7 +2130,7 @@
         <v>42</v>
       </c>
       <c r="H17" s="3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>43</v>
@@ -2142,7 +2142,7 @@
         <v>45</v>
       </c>
       <c r="L17" s="3">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M17" s="3">
         <v>10</v>
@@ -2175,7 +2175,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>41</v>
@@ -2184,7 +2184,7 @@
         <v>42</v>
       </c>
       <c r="H18" s="3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>43</v>
@@ -2196,7 +2196,7 @@
         <v>45</v>
       </c>
       <c r="L18" s="3">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M18" s="3">
         <v>10</v>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11970"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>Human_Cavalry_1</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Human_Mage_1</t>
+  </si>
+  <si>
+    <t>魔法师</t>
   </si>
 </sst>
 </file>
@@ -834,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +858,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1198,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1703,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="M9" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N9" s="3">
         <v>5</v>
@@ -1759,7 +1771,7 @@
         <v>1.5</v>
       </c>
       <c r="M10" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N10" s="3">
         <v>5</v>
@@ -1815,7 +1827,7 @@
         <v>1.5</v>
       </c>
       <c r="M11" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N11" s="3">
         <v>5</v>
@@ -1871,7 +1883,7 @@
         <v>1.5</v>
       </c>
       <c r="M12" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N12" s="3">
         <v>5</v>
@@ -1927,7 +1939,7 @@
         <v>1.5</v>
       </c>
       <c r="M13" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N13" s="3">
         <v>5</v>
@@ -1983,7 +1995,7 @@
         <v>2.6</v>
       </c>
       <c r="M14" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N14" s="3">
         <v>5</v>
@@ -2037,7 +2049,7 @@
         <v>2.6</v>
       </c>
       <c r="M15" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N15" s="3">
         <v>5</v>
@@ -2091,7 +2103,7 @@
         <v>2.6</v>
       </c>
       <c r="M16" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N16" s="3">
         <v>5</v>
@@ -2145,7 +2157,7 @@
         <v>2.6</v>
       </c>
       <c r="M17" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N17" s="3">
         <v>5</v>
@@ -2199,7 +2211,7 @@
         <v>2.6</v>
       </c>
       <c r="M18" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N18" s="3">
         <v>5</v>
@@ -2214,6 +2226,286 @@
         <v>66</v>
       </c>
       <c r="R18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:18">
+      <c r="A19" s="3">
+        <v>1401</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1672401401</v>
+      </c>
+      <c r="D19" s="3">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3">
+        <v>25</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M19" s="3">
+        <v>20</v>
+      </c>
+      <c r="N19" s="3">
+        <v>5</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:18">
+      <c r="A20" s="3">
+        <v>1402</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1672401402</v>
+      </c>
+      <c r="D20" s="3">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3">
+        <v>25</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="3">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="3">
+        <v>20</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:18">
+      <c r="A21" s="3">
+        <v>1403</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1672401403</v>
+      </c>
+      <c r="D21" s="3">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3">
+        <v>25</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="3">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="3">
+        <v>20</v>
+      </c>
+      <c r="N21" s="3">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:18">
+      <c r="A22" s="3">
+        <v>1404</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1672401404</v>
+      </c>
+      <c r="D22" s="3">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3">
+        <v>25</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>20</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:18">
+      <c r="A23" s="3">
+        <v>1405</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1672401405</v>
+      </c>
+      <c r="D23" s="3">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="3">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="3">
+        <v>20</v>
+      </c>
+      <c r="N23" s="3">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
